--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lamb2</t>
+  </si>
+  <si>
+    <t>Rpsa</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lamb2</t>
-  </si>
-  <si>
-    <t>Rpsa</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.02021</v>
+        <v>26.126475</v>
       </c>
       <c r="H2">
-        <v>69.06063</v>
+        <v>78.379425</v>
       </c>
       <c r="I2">
-        <v>0.3124724225015736</v>
+        <v>0.3925930590119882</v>
       </c>
       <c r="J2">
-        <v>0.3124724225015736</v>
+        <v>0.3925930590119882</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.73758233333333</v>
+        <v>156.53184</v>
       </c>
       <c r="N2">
-        <v>161.212747</v>
+        <v>469.59552</v>
       </c>
       <c r="O2">
-        <v>0.05888757418975076</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="P2">
-        <v>0.05888757418975077</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="Q2">
-        <v>1237.050430205623</v>
+        <v>4089.625204464</v>
       </c>
       <c r="R2">
-        <v>11133.45387185061</v>
+        <v>36806.626840176</v>
       </c>
       <c r="S2">
-        <v>0.01840074296231256</v>
+        <v>0.05510911367779538</v>
       </c>
       <c r="T2">
-        <v>0.01840074296231256</v>
+        <v>0.05510911367779538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.02021</v>
+        <v>26.126475</v>
       </c>
       <c r="H3">
-        <v>69.06063</v>
+        <v>78.379425</v>
       </c>
       <c r="I3">
-        <v>0.3124724225015736</v>
+        <v>0.3925930590119882</v>
       </c>
       <c r="J3">
-        <v>0.3124724225015736</v>
+        <v>0.3925930590119882</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1167.6026</v>
       </c>
       <c r="O3">
-        <v>0.4265002985877158</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="P3">
-        <v>0.4265002985877159</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="Q3">
-        <v>8959.485682848666</v>
+        <v>10168.446712945</v>
       </c>
       <c r="R3">
-        <v>80635.371145638</v>
+        <v>91516.02041650499</v>
       </c>
       <c r="S3">
-        <v>0.133269581497348</v>
+        <v>0.1370233353458939</v>
       </c>
       <c r="T3">
-        <v>0.1332695814973481</v>
+        <v>0.1370233353458939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.02021</v>
+        <v>26.126475</v>
       </c>
       <c r="H4">
-        <v>69.06063</v>
+        <v>78.379425</v>
       </c>
       <c r="I4">
-        <v>0.3124724225015736</v>
+        <v>0.3925930590119882</v>
       </c>
       <c r="J4">
-        <v>0.3124724225015736</v>
+        <v>0.3925930590119882</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.7388736666667</v>
+        <v>169.4499613333333</v>
       </c>
       <c r="N4">
-        <v>398.216621</v>
+        <v>508.349884</v>
       </c>
       <c r="O4">
-        <v>0.1454600287453036</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="P4">
-        <v>0.1454600287453037</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="Q4">
-        <v>3055.676746970137</v>
+        <v>4427.130178526299</v>
       </c>
       <c r="R4">
-        <v>27501.09072273123</v>
+        <v>39844.17160673669</v>
       </c>
       <c r="S4">
-        <v>0.04545224755919357</v>
+        <v>0.05965710990055888</v>
       </c>
       <c r="T4">
-        <v>0.04545224755919357</v>
+        <v>0.05965710990055888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.02021</v>
+        <v>26.126475</v>
       </c>
       <c r="H5">
-        <v>69.06063</v>
+        <v>78.379425</v>
       </c>
       <c r="I5">
-        <v>0.3124724225015736</v>
+        <v>0.3925930590119882</v>
       </c>
       <c r="J5">
-        <v>0.3124724225015736</v>
+        <v>0.3925930590119882</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.898463</v>
+        <v>169.0002543333333</v>
       </c>
       <c r="N5">
-        <v>437.695389</v>
+        <v>507.000763</v>
       </c>
       <c r="O5">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="P5">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="Q5">
-        <v>3358.61325693723</v>
+        <v>4415.380919833475</v>
       </c>
       <c r="R5">
-        <v>30227.51931243507</v>
+        <v>39738.42827850128</v>
       </c>
       <c r="S5">
-        <v>0.04995833455265426</v>
+        <v>0.05949878457719528</v>
       </c>
       <c r="T5">
-        <v>0.04995833455265427</v>
+        <v>0.05949878457719528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.02021</v>
+        <v>26.126475</v>
       </c>
       <c r="H6">
-        <v>69.06063</v>
+        <v>78.379425</v>
       </c>
       <c r="I6">
-        <v>0.3124724225015736</v>
+        <v>0.3925930590119882</v>
       </c>
       <c r="J6">
-        <v>0.3124724225015736</v>
+        <v>0.3925930590119882</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.687468</v>
+        <v>60.30985666666667</v>
       </c>
       <c r="N6">
-        <v>176.062404</v>
+        <v>180.92957</v>
       </c>
       <c r="O6">
-        <v>0.06431183681508679</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="P6">
-        <v>0.0643118368150868</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="Q6">
-        <v>1350.99783772828</v>
+        <v>1575.68396245525</v>
       </c>
       <c r="R6">
-        <v>12158.98053955452</v>
+        <v>14181.15566209725</v>
       </c>
       <c r="S6">
-        <v>0.02009567544513606</v>
+        <v>0.02123288620982721</v>
       </c>
       <c r="T6">
-        <v>0.02009567544513606</v>
+        <v>0.02123288620982721</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.02021</v>
+        <v>26.126475</v>
       </c>
       <c r="H7">
-        <v>69.06063</v>
+        <v>78.379425</v>
       </c>
       <c r="I7">
-        <v>0.3124724225015736</v>
+        <v>0.3925930590119882</v>
       </c>
       <c r="J7">
-        <v>0.3124724225015736</v>
+        <v>0.3925930590119882</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>132.282102</v>
+        <v>170.6279296666667</v>
       </c>
       <c r="N7">
-        <v>396.846306</v>
+        <v>511.883789</v>
       </c>
       <c r="O7">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="P7">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="Q7">
-        <v>3045.16176728142</v>
+        <v>4457.906338737925</v>
       </c>
       <c r="R7">
-        <v>27406.45590553278</v>
+        <v>40121.15704864133</v>
       </c>
       <c r="S7">
-        <v>0.04529584048492914</v>
+        <v>0.0600718293007174</v>
       </c>
       <c r="T7">
-        <v>0.04529584048492915</v>
+        <v>0.0600718293007174</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.48707066666666</v>
+        <v>31.48707066666667</v>
       </c>
       <c r="H8">
-        <v>94.46121199999999</v>
+        <v>94.461212</v>
       </c>
       <c r="I8">
-        <v>0.4274001518097172</v>
+        <v>0.4731447848342843</v>
       </c>
       <c r="J8">
-        <v>0.4274001518097172</v>
+        <v>0.4731447848342843</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.73758233333333</v>
+        <v>156.53184</v>
       </c>
       <c r="N8">
-        <v>161.212747</v>
+        <v>469.59552</v>
       </c>
       <c r="O8">
-        <v>0.05888757418975076</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="P8">
-        <v>0.05888757418975077</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="Q8">
-        <v>1692.039052385485</v>
+        <v>4928.72910766336</v>
       </c>
       <c r="R8">
-        <v>15228.35147146936</v>
+        <v>44358.56196897024</v>
       </c>
       <c r="S8">
-        <v>0.02516855814840546</v>
+        <v>0.06641632890583632</v>
       </c>
       <c r="T8">
-        <v>0.02516855814840547</v>
+        <v>0.06641632890583631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.48707066666666</v>
+        <v>31.48707066666667</v>
       </c>
       <c r="H9">
-        <v>94.46121199999999</v>
+        <v>94.461212</v>
       </c>
       <c r="I9">
-        <v>0.4274001518097172</v>
+        <v>0.4731447848342843</v>
       </c>
       <c r="J9">
-        <v>0.4274001518097172</v>
+        <v>0.4731447848342843</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1167.6026</v>
       </c>
       <c r="O9">
-        <v>0.4265002985877158</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="P9">
-        <v>0.4265002985877159</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="Q9">
         <v>12254.79519226124</v>
@@ -1013,10 +1013,10 @@
         <v>110293.1567303512</v>
       </c>
       <c r="S9">
-        <v>0.1822862923632795</v>
+        <v>0.165137602490138</v>
       </c>
       <c r="T9">
-        <v>0.1822862923632795</v>
+        <v>0.165137602490138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.48707066666666</v>
+        <v>31.48707066666667</v>
       </c>
       <c r="H10">
-        <v>94.46121199999999</v>
+        <v>94.461212</v>
       </c>
       <c r="I10">
-        <v>0.4274001518097172</v>
+        <v>0.4731447848342843</v>
       </c>
       <c r="J10">
-        <v>0.4274001518097172</v>
+        <v>0.4731447848342843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.7388736666667</v>
+        <v>169.4499613333333</v>
       </c>
       <c r="N10">
-        <v>398.216621</v>
+        <v>508.349884</v>
       </c>
       <c r="O10">
-        <v>0.1454600287453036</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="P10">
-        <v>0.1454600287453037</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="Q10">
-        <v>4179.558295356072</v>
+        <v>5335.482906966601</v>
       </c>
       <c r="R10">
-        <v>37616.02465820465</v>
+        <v>48019.34616269941</v>
       </c>
       <c r="S10">
-        <v>0.06216963836798861</v>
+        <v>0.0718974769925142</v>
       </c>
       <c r="T10">
-        <v>0.06216963836798862</v>
+        <v>0.07189747699251418</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.48707066666666</v>
+        <v>31.48707066666667</v>
       </c>
       <c r="H11">
-        <v>94.46121199999999</v>
+        <v>94.461212</v>
       </c>
       <c r="I11">
-        <v>0.4274001518097172</v>
+        <v>0.4731447848342843</v>
       </c>
       <c r="J11">
-        <v>0.4274001518097172</v>
+        <v>0.4731447848342843</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.898463</v>
+        <v>169.0002543333333</v>
       </c>
       <c r="N11">
-        <v>437.695389</v>
+        <v>507.000763</v>
       </c>
       <c r="O11">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="P11">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="Q11">
-        <v>4593.915214639052</v>
+        <v>5321.322950878307</v>
       </c>
       <c r="R11">
-        <v>41345.23693175146</v>
+        <v>47891.90655790476</v>
       </c>
       <c r="S11">
-        <v>0.06833306952666372</v>
+        <v>0.07170666668821281</v>
       </c>
       <c r="T11">
-        <v>0.06833306952666374</v>
+        <v>0.07170666668821279</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.48707066666666</v>
+        <v>31.48707066666667</v>
       </c>
       <c r="H12">
-        <v>94.46121199999999</v>
+        <v>94.461212</v>
       </c>
       <c r="I12">
-        <v>0.4274001518097172</v>
+        <v>0.4731447848342843</v>
       </c>
       <c r="J12">
-        <v>0.4274001518097172</v>
+        <v>0.4731447848342843</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.687468</v>
+        <v>60.30985666666667</v>
       </c>
       <c r="N12">
-        <v>176.062404</v>
+        <v>180.92957</v>
       </c>
       <c r="O12">
-        <v>0.06431183681508679</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="P12">
-        <v>0.0643118368150868</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="Q12">
-        <v>1847.896452163738</v>
+        <v>1898.980718759871</v>
       </c>
       <c r="R12">
-        <v>16631.06806947364</v>
+        <v>17090.82646883884</v>
       </c>
       <c r="S12">
-        <v>0.02748688881792986</v>
+        <v>0.02558942178560719</v>
       </c>
       <c r="T12">
-        <v>0.02748688881792986</v>
+        <v>0.02558942178560718</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.48707066666666</v>
+        <v>31.48707066666667</v>
       </c>
       <c r="H13">
-        <v>94.46121199999999</v>
+        <v>94.461212</v>
       </c>
       <c r="I13">
-        <v>0.4274001518097172</v>
+        <v>0.4731447848342843</v>
       </c>
       <c r="J13">
-        <v>0.4274001518097172</v>
+        <v>0.4731447848342843</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>132.282102</v>
+        <v>170.6279296666667</v>
       </c>
       <c r="N13">
-        <v>396.846306</v>
+        <v>511.883789</v>
       </c>
       <c r="O13">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="P13">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="Q13">
-        <v>4165.175893609208</v>
+        <v>5372.573679121363</v>
       </c>
       <c r="R13">
-        <v>37486.58304248287</v>
+        <v>48353.16311209227</v>
       </c>
       <c r="S13">
-        <v>0.06195570458545011</v>
+        <v>0.0723972879719758</v>
       </c>
       <c r="T13">
-        <v>0.06195570458545012</v>
+        <v>0.07239728797197578</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.156823</v>
+        <v>8.472343333333333</v>
       </c>
       <c r="H14">
-        <v>0.470469</v>
+        <v>25.41703</v>
       </c>
       <c r="I14">
-        <v>0.002128688778858415</v>
+        <v>0.1273108288138051</v>
       </c>
       <c r="J14">
-        <v>0.002128688778858415</v>
+        <v>0.1273108288138051</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>53.73758233333333</v>
+        <v>156.53184</v>
       </c>
       <c r="N14">
-        <v>161.212747</v>
+        <v>469.59552</v>
       </c>
       <c r="O14">
-        <v>0.05888757418975076</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="P14">
-        <v>0.05888757418975077</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="Q14">
-        <v>8.427288874260334</v>
+        <v>1326.1914910784</v>
       </c>
       <c r="R14">
-        <v>75.845599868343</v>
+        <v>11935.7234197056</v>
       </c>
       <c r="S14">
-        <v>0.0001253533183919149</v>
+        <v>0.01787088889235836</v>
       </c>
       <c r="T14">
-        <v>0.0001253533183919149</v>
+        <v>0.01787088889235836</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.156823</v>
+        <v>8.472343333333333</v>
       </c>
       <c r="H15">
-        <v>0.470469</v>
+        <v>25.41703</v>
       </c>
       <c r="I15">
-        <v>0.002128688778858415</v>
+        <v>0.1273108288138051</v>
       </c>
       <c r="J15">
-        <v>0.002128688778858415</v>
+        <v>0.1273108288138051</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1167.6026</v>
       </c>
       <c r="O15">
-        <v>0.4265002985877158</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="P15">
-        <v>0.4265002985877159</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="Q15">
-        <v>61.03564751326667</v>
+        <v>3297.443368030888</v>
       </c>
       <c r="R15">
-        <v>549.3208276194</v>
+        <v>29676.990312278</v>
       </c>
       <c r="S15">
-        <v>0.0009078863997834343</v>
+        <v>0.04443418952341953</v>
       </c>
       <c r="T15">
-        <v>0.0009078863997834344</v>
+        <v>0.04443418952341953</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.156823</v>
+        <v>8.472343333333333</v>
       </c>
       <c r="H16">
-        <v>0.470469</v>
+        <v>25.41703</v>
       </c>
       <c r="I16">
-        <v>0.002128688778858415</v>
+        <v>0.1273108288138051</v>
       </c>
       <c r="J16">
-        <v>0.002128688778858415</v>
+        <v>0.1273108288138051</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.7388736666667</v>
+        <v>169.4499613333333</v>
       </c>
       <c r="N16">
-        <v>398.216621</v>
+        <v>508.349884</v>
       </c>
       <c r="O16">
-        <v>0.1454600287453036</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="P16">
-        <v>0.1454600287453037</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="Q16">
-        <v>20.81650838502767</v>
+        <v>1435.638250236058</v>
       </c>
       <c r="R16">
-        <v>187.348575465249</v>
+        <v>12920.74425212452</v>
       </c>
       <c r="S16">
-        <v>0.0003096391309625504</v>
+        <v>0.01934572181482324</v>
       </c>
       <c r="T16">
-        <v>0.0003096391309625505</v>
+        <v>0.01934572181482324</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.156823</v>
+        <v>8.472343333333333</v>
       </c>
       <c r="H17">
-        <v>0.470469</v>
+        <v>25.41703</v>
       </c>
       <c r="I17">
-        <v>0.002128688778858415</v>
+        <v>0.1273108288138051</v>
       </c>
       <c r="J17">
-        <v>0.002128688778858415</v>
+        <v>0.1273108288138051</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>145.898463</v>
+        <v>169.0002543333333</v>
       </c>
       <c r="N17">
-        <v>437.695389</v>
+        <v>507.000763</v>
       </c>
       <c r="O17">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="P17">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="Q17">
-        <v>22.880234663049</v>
+        <v>1431.828178132655</v>
       </c>
       <c r="R17">
-        <v>205.922111967441</v>
+        <v>12886.45360319389</v>
       </c>
       <c r="S17">
-        <v>0.0003403364217594409</v>
+        <v>0.0192943797758418</v>
       </c>
       <c r="T17">
-        <v>0.000340336421759441</v>
+        <v>0.0192943797758418</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.156823</v>
+        <v>8.472343333333333</v>
       </c>
       <c r="H18">
-        <v>0.470469</v>
+        <v>25.41703</v>
       </c>
       <c r="I18">
-        <v>0.002128688778858415</v>
+        <v>0.1273108288138051</v>
       </c>
       <c r="J18">
-        <v>0.002128688778858415</v>
+        <v>0.1273108288138051</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.687468</v>
+        <v>60.30985666666667</v>
       </c>
       <c r="N18">
-        <v>176.062404</v>
+        <v>180.92957</v>
       </c>
       <c r="O18">
-        <v>0.06431183681508679</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="P18">
-        <v>0.0643118368150868</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="Q18">
-        <v>9.203544794164001</v>
+        <v>510.9658120641222</v>
       </c>
       <c r="R18">
-        <v>82.831903147476</v>
+        <v>4598.6923085771</v>
       </c>
       <c r="S18">
-        <v>0.0001368998853760488</v>
+        <v>0.006885440991456169</v>
       </c>
       <c r="T18">
-        <v>0.0001368998853760488</v>
+        <v>0.006885440991456169</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.156823</v>
+        <v>8.472343333333333</v>
       </c>
       <c r="H19">
-        <v>0.470469</v>
+        <v>25.41703</v>
       </c>
       <c r="I19">
-        <v>0.002128688778858415</v>
+        <v>0.1273108288138051</v>
       </c>
       <c r="J19">
-        <v>0.002128688778858415</v>
+        <v>0.1273108288138051</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>132.282102</v>
+        <v>170.6279296666667</v>
       </c>
       <c r="N19">
-        <v>396.846306</v>
+        <v>511.883789</v>
       </c>
       <c r="O19">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="P19">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="Q19">
-        <v>20.744876081946</v>
+        <v>1445.618402391852</v>
       </c>
       <c r="R19">
-        <v>186.703884737514</v>
+        <v>13010.56562152667</v>
       </c>
       <c r="S19">
-        <v>0.000308573622585026</v>
+        <v>0.01948020781590594</v>
       </c>
       <c r="T19">
-        <v>0.0003085736225850261</v>
+        <v>0.01948020781590594</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>18.46832433333333</v>
+        <v>0.2840053333333333</v>
       </c>
       <c r="H20">
-        <v>55.404973</v>
+        <v>0.852016</v>
       </c>
       <c r="I20">
-        <v>0.2506858992155773</v>
+        <v>0.004267645083734132</v>
       </c>
       <c r="J20">
-        <v>0.2506858992155774</v>
+        <v>0.004267645083734132</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>53.73758233333333</v>
+        <v>156.53184</v>
       </c>
       <c r="N20">
-        <v>161.212747</v>
+        <v>469.59552</v>
       </c>
       <c r="O20">
-        <v>0.05888757418975076</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="P20">
-        <v>0.05888757418975077</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="Q20">
-        <v>992.4430994212032</v>
+        <v>44.45587739648</v>
       </c>
       <c r="R20">
-        <v>8931.987894790829</v>
+        <v>400.10289656832</v>
       </c>
       <c r="S20">
-        <v>0.01476228448838169</v>
+        <v>0.0005990583191864512</v>
       </c>
       <c r="T20">
-        <v>0.0147622844883817</v>
+        <v>0.0005990583191864512</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>18.46832433333333</v>
+        <v>0.2840053333333333</v>
       </c>
       <c r="H21">
-        <v>55.404973</v>
+        <v>0.852016</v>
       </c>
       <c r="I21">
-        <v>0.2506858992155773</v>
+        <v>0.004267645083734132</v>
       </c>
       <c r="J21">
-        <v>0.2506858992155774</v>
+        <v>0.004267645083734132</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1167.6026</v>
       </c>
       <c r="O21">
-        <v>0.4265002985877158</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="P21">
-        <v>0.4265002985877159</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="Q21">
-        <v>7187.887836414421</v>
+        <v>110.5351218712889</v>
       </c>
       <c r="R21">
-        <v>64690.99052772979</v>
+        <v>994.8160968415999</v>
       </c>
       <c r="S21">
-        <v>0.1069176108671738</v>
+        <v>0.001489498986348358</v>
       </c>
       <c r="T21">
-        <v>0.1069176108671738</v>
+        <v>0.001489498986348358</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>18.46832433333333</v>
+        <v>0.2840053333333333</v>
       </c>
       <c r="H22">
-        <v>55.404973</v>
+        <v>0.852016</v>
       </c>
       <c r="I22">
-        <v>0.2506858992155773</v>
+        <v>0.004267645083734132</v>
       </c>
       <c r="J22">
-        <v>0.2506858992155774</v>
+        <v>0.004267645083734132</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.7388736666667</v>
+        <v>169.4499613333333</v>
       </c>
       <c r="N22">
-        <v>398.216621</v>
+        <v>508.349884</v>
       </c>
       <c r="O22">
-        <v>0.1454600287453036</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="P22">
-        <v>0.1454600287453037</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="Q22">
-        <v>2451.464570517359</v>
+        <v>48.12469275179378</v>
       </c>
       <c r="R22">
-        <v>22063.18113465624</v>
+        <v>433.122234766144</v>
       </c>
       <c r="S22">
-        <v>0.03646477810594017</v>
+        <v>0.0006484968746457961</v>
       </c>
       <c r="T22">
-        <v>0.03646477810594018</v>
+        <v>0.0006484968746457961</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>18.46832433333333</v>
+        <v>0.2840053333333333</v>
       </c>
       <c r="H23">
-        <v>55.404973</v>
+        <v>0.852016</v>
       </c>
       <c r="I23">
-        <v>0.2506858992155773</v>
+        <v>0.004267645083734132</v>
       </c>
       <c r="J23">
-        <v>0.2506858992155774</v>
+        <v>0.004267645083734132</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>145.898463</v>
+        <v>169.0002543333333</v>
       </c>
       <c r="N23">
-        <v>437.695389</v>
+        <v>507.000763</v>
       </c>
       <c r="O23">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="P23">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="Q23">
-        <v>2694.500134418833</v>
+        <v>47.99697356535645</v>
       </c>
       <c r="R23">
-        <v>24250.5012097695</v>
+        <v>431.972762088208</v>
       </c>
       <c r="S23">
-        <v>0.04007985703308493</v>
+        <v>0.000646775814447779</v>
       </c>
       <c r="T23">
-        <v>0.04007985703308494</v>
+        <v>0.000646775814447779</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>18.46832433333333</v>
+        <v>0.2840053333333333</v>
       </c>
       <c r="H24">
-        <v>55.404973</v>
+        <v>0.852016</v>
       </c>
       <c r="I24">
-        <v>0.2506858992155773</v>
+        <v>0.004267645083734132</v>
       </c>
       <c r="J24">
-        <v>0.2506858992155774</v>
+        <v>0.004267645083734132</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.687468</v>
+        <v>60.30985666666667</v>
       </c>
       <c r="N24">
-        <v>176.062404</v>
+        <v>180.92957</v>
       </c>
       <c r="O24">
-        <v>0.06431183681508679</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="P24">
-        <v>0.0643118368150868</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="Q24">
-        <v>1083.859193326121</v>
+        <v>17.12832094590222</v>
       </c>
       <c r="R24">
-        <v>9754.732739935091</v>
+        <v>154.15488851312</v>
       </c>
       <c r="S24">
-        <v>0.0161220706421955</v>
+        <v>0.0002308100471131568</v>
       </c>
       <c r="T24">
-        <v>0.01612207064219551</v>
+        <v>0.0002308100471131568</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>18.46832433333333</v>
+        <v>0.2840053333333333</v>
       </c>
       <c r="H25">
-        <v>55.404973</v>
+        <v>0.852016</v>
       </c>
       <c r="I25">
-        <v>0.2506858992155773</v>
+        <v>0.004267645083734132</v>
       </c>
       <c r="J25">
-        <v>0.2506858992155774</v>
+        <v>0.004267645083734132</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>132.282102</v>
+        <v>170.6279296666667</v>
       </c>
       <c r="N25">
-        <v>396.846306</v>
+        <v>511.883789</v>
       </c>
       <c r="O25">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="P25">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="Q25">
-        <v>2443.028763231082</v>
+        <v>48.45924204095822</v>
       </c>
       <c r="R25">
-        <v>21987.25886907974</v>
+        <v>436.133178368624</v>
       </c>
       <c r="S25">
-        <v>0.03633929807880127</v>
+        <v>0.0006530050419925898</v>
       </c>
       <c r="T25">
-        <v>0.03633929807880128</v>
+        <v>0.0006530050419925898</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3266946666666666</v>
+        <v>0.178595</v>
       </c>
       <c r="H26">
-        <v>0.980084</v>
+        <v>0.535785</v>
       </c>
       <c r="I26">
-        <v>0.004434497943836195</v>
+        <v>0.002683682256188254</v>
       </c>
       <c r="J26">
-        <v>0.004434497943836196</v>
+        <v>0.002683682256188254</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>53.73758233333333</v>
+        <v>156.53184</v>
       </c>
       <c r="N26">
-        <v>161.212747</v>
+        <v>469.59552</v>
       </c>
       <c r="O26">
-        <v>0.05888757418975076</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="P26">
-        <v>0.05888757418975077</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="Q26">
-        <v>17.55578154786089</v>
+        <v>27.95580396479999</v>
       </c>
       <c r="R26">
-        <v>158.002033930748</v>
+        <v>251.6022356832</v>
       </c>
       <c r="S26">
-        <v>0.0002611368266619511</v>
+        <v>0.0003767141245531923</v>
       </c>
       <c r="T26">
-        <v>0.0002611368266619512</v>
+        <v>0.0003767141245531922</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3266946666666666</v>
+        <v>0.178595</v>
       </c>
       <c r="H27">
-        <v>0.980084</v>
+        <v>0.535785</v>
       </c>
       <c r="I27">
-        <v>0.004434497943836195</v>
+        <v>0.002683682256188254</v>
       </c>
       <c r="J27">
-        <v>0.004434497943836196</v>
+        <v>0.002683682256188254</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1167.6026</v>
       </c>
       <c r="O27">
-        <v>0.4265002985877158</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="P27">
-        <v>0.4265002985877159</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="Q27">
-        <v>127.1498474020444</v>
+        <v>69.50932878233331</v>
       </c>
       <c r="R27">
-        <v>1144.3486266184</v>
+        <v>625.583959041</v>
       </c>
       <c r="S27">
-        <v>0.001891314697132749</v>
+        <v>0.0009366622392075444</v>
       </c>
       <c r="T27">
-        <v>0.00189131469713275</v>
+        <v>0.0009366622392075443</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,14 +2140,14 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
         <v>3</v>
       </c>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.3266946666666666</v>
+        <v>0.178595</v>
       </c>
       <c r="H28">
-        <v>0.980084</v>
+        <v>0.535785</v>
       </c>
       <c r="I28">
-        <v>0.004434497943836195</v>
+        <v>0.002683682256188254</v>
       </c>
       <c r="J28">
-        <v>0.004434497943836196</v>
+        <v>0.002683682256188254</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.7388736666667</v>
+        <v>169.4499613333333</v>
       </c>
       <c r="N28">
-        <v>398.216621</v>
+        <v>508.349884</v>
       </c>
       <c r="O28">
-        <v>0.1454600287453036</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="P28">
-        <v>0.1454600287453037</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="Q28">
-        <v>43.36508208624044</v>
+        <v>30.26291584432666</v>
       </c>
       <c r="R28">
-        <v>390.285738776164</v>
+        <v>272.3662425989399</v>
       </c>
       <c r="S28">
-        <v>0.0006450421983814029</v>
+        <v>0.0004078032548474417</v>
       </c>
       <c r="T28">
-        <v>0.0006450421983814031</v>
+        <v>0.0004078032548474416</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.3266946666666666</v>
+        <v>0.178595</v>
       </c>
       <c r="H29">
-        <v>0.980084</v>
+        <v>0.535785</v>
       </c>
       <c r="I29">
-        <v>0.004434497943836195</v>
+        <v>0.002683682256188254</v>
       </c>
       <c r="J29">
-        <v>0.004434497943836196</v>
+        <v>0.002683682256188254</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>145.898463</v>
+        <v>169.0002543333333</v>
       </c>
       <c r="N29">
-        <v>437.695389</v>
+        <v>507.000763</v>
       </c>
       <c r="O29">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="P29">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="Q29">
-        <v>47.664249736964</v>
+        <v>30.18260042266166</v>
       </c>
       <c r="R29">
-        <v>428.978247632676</v>
+        <v>271.643403803955</v>
       </c>
       <c r="S29">
-        <v>0.0007089909889571467</v>
+        <v>0.0004067209767702757</v>
       </c>
       <c r="T29">
-        <v>0.0007089909889571469</v>
+        <v>0.0004067209767702757</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3266946666666666</v>
+        <v>0.178595</v>
       </c>
       <c r="H30">
-        <v>0.980084</v>
+        <v>0.535785</v>
       </c>
       <c r="I30">
-        <v>0.004434497943836195</v>
+        <v>0.002683682256188254</v>
       </c>
       <c r="J30">
-        <v>0.004434497943836196</v>
+        <v>0.002683682256188254</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.687468</v>
+        <v>60.30985666666667</v>
       </c>
       <c r="N30">
-        <v>176.062404</v>
+        <v>180.92957</v>
       </c>
       <c r="O30">
-        <v>0.06431183681508679</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="P30">
-        <v>0.0643118368150868</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="Q30">
-        <v>19.17288279577066</v>
+        <v>10.77103885138333</v>
       </c>
       <c r="R30">
-        <v>172.555945161936</v>
+        <v>96.93934966245</v>
       </c>
       <c r="S30">
-        <v>0.0002851907081208312</v>
+        <v>0.0001451434727663831</v>
       </c>
       <c r="T30">
-        <v>0.0002851907081208314</v>
+        <v>0.0001451434727663831</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.3266946666666666</v>
+        <v>0.178595</v>
       </c>
       <c r="H31">
-        <v>0.980084</v>
+        <v>0.535785</v>
       </c>
       <c r="I31">
-        <v>0.004434497943836195</v>
+        <v>0.002683682256188254</v>
       </c>
       <c r="J31">
-        <v>0.004434497943836196</v>
+        <v>0.002683682256188254</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>132.282102</v>
+        <v>170.6279296666667</v>
       </c>
       <c r="N31">
-        <v>396.846306</v>
+        <v>511.883789</v>
       </c>
       <c r="O31">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="P31">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="Q31">
-        <v>43.215857218856</v>
+        <v>30.47329509881833</v>
       </c>
       <c r="R31">
-        <v>388.942714969704</v>
+        <v>274.259655889365</v>
       </c>
       <c r="S31">
-        <v>0.000642822524582114</v>
+        <v>0.0004106381880434167</v>
       </c>
       <c r="T31">
-        <v>0.0006428225245821142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.2120506666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.6361520000000001</v>
-      </c>
-      <c r="I32">
-        <v>0.002878339750436987</v>
-      </c>
-      <c r="J32">
-        <v>0.002878339750436987</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>53.73758233333333</v>
-      </c>
-      <c r="N32">
-        <v>161.212747</v>
-      </c>
-      <c r="O32">
-        <v>0.05888757418975076</v>
-      </c>
-      <c r="P32">
-        <v>0.05888757418975077</v>
-      </c>
-      <c r="Q32">
-        <v>11.39509015883822</v>
-      </c>
-      <c r="R32">
-        <v>102.555811429544</v>
-      </c>
-      <c r="S32">
-        <v>0.0001694984455971668</v>
-      </c>
-      <c r="T32">
-        <v>0.0001694984455971668</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.2120506666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.6361520000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.002878339750436987</v>
-      </c>
-      <c r="J33">
-        <v>0.002878339750436987</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>389.2008666666666</v>
-      </c>
-      <c r="N33">
-        <v>1167.6026</v>
-      </c>
-      <c r="O33">
-        <v>0.4265002985877158</v>
-      </c>
-      <c r="P33">
-        <v>0.4265002985877159</v>
-      </c>
-      <c r="Q33">
-        <v>82.53030324391111</v>
-      </c>
-      <c r="R33">
-        <v>742.7727291952</v>
-      </c>
-      <c r="S33">
-        <v>0.001227612762998266</v>
-      </c>
-      <c r="T33">
-        <v>0.001227612762998266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.2120506666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.6361520000000001</v>
-      </c>
-      <c r="I34">
-        <v>0.002878339750436987</v>
-      </c>
-      <c r="J34">
-        <v>0.002878339750436987</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>132.7388736666667</v>
-      </c>
-      <c r="N34">
-        <v>398.216621</v>
-      </c>
-      <c r="O34">
-        <v>0.1454600287453036</v>
-      </c>
-      <c r="P34">
-        <v>0.1454600287453037</v>
-      </c>
-      <c r="Q34">
-        <v>28.14736665359912</v>
-      </c>
-      <c r="R34">
-        <v>253.326299882392</v>
-      </c>
-      <c r="S34">
-        <v>0.0004186833828373142</v>
-      </c>
-      <c r="T34">
-        <v>0.0004186833828373142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.2120506666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.6361520000000001</v>
-      </c>
-      <c r="I35">
-        <v>0.002878339750436987</v>
-      </c>
-      <c r="J35">
-        <v>0.002878339750436987</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>145.898463</v>
-      </c>
-      <c r="N35">
-        <v>437.695389</v>
-      </c>
-      <c r="O35">
-        <v>0.1598807797267379</v>
-      </c>
-      <c r="P35">
-        <v>0.1598807797267379</v>
-      </c>
-      <c r="Q35">
-        <v>30.937866344792</v>
-      </c>
-      <c r="R35">
-        <v>278.440797103128</v>
-      </c>
-      <c r="S35">
-        <v>0.0004601912036183295</v>
-      </c>
-      <c r="T35">
-        <v>0.0004601912036183296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.2120506666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.6361520000000001</v>
-      </c>
-      <c r="I36">
-        <v>0.002878339750436987</v>
-      </c>
-      <c r="J36">
-        <v>0.002878339750436987</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>58.687468</v>
-      </c>
-      <c r="N36">
-        <v>176.062404</v>
-      </c>
-      <c r="O36">
-        <v>0.06431183681508679</v>
-      </c>
-      <c r="P36">
-        <v>0.0643118368150868</v>
-      </c>
-      <c r="Q36">
-        <v>12.44471671437867</v>
-      </c>
-      <c r="R36">
-        <v>112.002450429408</v>
-      </c>
-      <c r="S36">
-        <v>0.0001851113163284811</v>
-      </c>
-      <c r="T36">
-        <v>0.0001851113163284812</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.2120506666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.6361520000000001</v>
-      </c>
-      <c r="I37">
-        <v>0.002878339750436987</v>
-      </c>
-      <c r="J37">
-        <v>0.002878339750436987</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>132.282102</v>
-      </c>
-      <c r="N37">
-        <v>396.846306</v>
-      </c>
-      <c r="O37">
-        <v>0.1449594819354051</v>
-      </c>
-      <c r="P37">
-        <v>0.1449594819354051</v>
-      </c>
-      <c r="Q37">
-        <v>28.05050791716801</v>
-      </c>
-      <c r="R37">
-        <v>252.454571254512</v>
-      </c>
-      <c r="S37">
-        <v>0.0004172426390574289</v>
-      </c>
-      <c r="T37">
-        <v>0.0004172426390574289</v>
+        <v>0.0004106381880434166</v>
       </c>
     </row>
   </sheetData>
